--- a/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26221" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26208" uniqueCount="432">
   <si>
     <t>Meeting name</t>
   </si>
@@ -27,7 +27,7 @@
     <t/>
   </si>
   <si>
-    <t>Fri 2018-06-15 15:26</t>
+    <t>Mon 2018-06-25 14:17</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -37,30 +37,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Do all meetings as soon as possible</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Minimum TimeGrains break between two consecutive meetings</t>
-  </si>
-  <si>
-    <t>Overlapping meetings</t>
-  </si>
-  <si>
-    <t>Assign larger rooms first</t>
-  </si>
-  <si>
-    <t>Room Stability</t>
-  </si>
-  <si>
-    <t>Required and preferred attendance conflict</t>
-  </si>
-  <si>
-    <t>Preferred attendance conflict</t>
   </si>
   <si>
     <t>Room conflict</t>
@@ -79,6 +55,27 @@
   </si>
   <si>
     <t>Entire group meeting not scheduled</t>
+  </si>
+  <si>
+    <t>Required and preferred attendance conflict</t>
+  </si>
+  <si>
+    <t>Preferred attendance conflict</t>
+  </si>
+  <si>
+    <t>Do all meetings as soon as possible</t>
+  </si>
+  <si>
+    <t>Minimum TimeGrains break between two consecutive meetings</t>
+  </si>
+  <si>
+    <t>Overlapping meetings</t>
+  </si>
+  <si>
+    <t>Assign larger rooms first</t>
+  </si>
+  <si>
+    <t>Room Stability</t>
   </si>
   <si>
     <t>Full name</t>
@@ -1462,7 +1459,7 @@
   <cols>
     <col min="1" max="1" width="66.828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1492,8 +1489,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1501,10 +1498,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -1512,10 +1509,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1523,10 +1520,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -1534,22 +1531,32 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+      <c r="B10" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1559,8 +1566,8 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1571,8 +1578,8 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
+      <c r="B13" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -1582,8 +1589,8 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="2" t="n">
+        <v>100.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -1593,8 +1600,8 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="2" t="n">
+        <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -1604,8 +1611,8 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
+      <c r="B16" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1615,24 +1622,14 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
+      <c r="B17" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -1655,182 +1652,182 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1861,30 +1858,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1899,15 +1896,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1922,15 +1919,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1945,15 +1942,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1968,15 +1965,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1991,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -2014,15 +2011,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -2037,15 +2034,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -2060,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -2083,15 +2080,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -2106,15 +2103,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -2129,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -2152,15 +2149,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -2175,15 +2172,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -2198,15 +2195,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -2221,15 +2218,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -2244,15 +2241,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -2267,15 +2264,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -2290,15 +2287,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -2313,15 +2310,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -2336,15 +2333,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -2359,15 +2356,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -2382,15 +2379,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -2405,15 +2402,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -2428,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>1</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -2451,15 +2448,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -2474,15 +2471,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -2497,15 +2494,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -2520,15 +2517,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -2543,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>1</v>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -2566,15 +2563,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -2589,15 +2586,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -2612,15 +2609,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -2635,15 +2632,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -2658,15 +2655,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -2681,15 +2678,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -2704,15 +2701,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -2727,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>1</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -2750,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>1</v>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -2773,15 +2770,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
@@ -2796,15 +2793,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -2819,15 +2816,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -2842,15 +2839,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -2865,15 +2862,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -2888,15 +2885,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -2911,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>1</v>
@@ -2919,7 +2916,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -2934,15 +2931,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
@@ -2957,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>1</v>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -2980,15 +2977,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -3003,15 +3000,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1</v>
@@ -3026,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>1</v>
@@ -3034,7 +3031,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -3049,15 +3046,15 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1</v>
@@ -3072,15 +3069,15 @@
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
@@ -3095,15 +3092,15 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
@@ -3118,15 +3115,15 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -3141,15 +3138,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -3164,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>1</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
@@ -3187,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>1</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
@@ -3210,15 +3207,15 @@
         <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -3233,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>1</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
@@ -3256,15 +3253,15 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -3279,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>1</v>
@@ -3287,7 +3284,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -3302,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>1</v>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
@@ -3325,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>1</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -3348,15 +3345,15 @@
         <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
@@ -3371,15 +3368,15 @@
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -3394,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>1</v>
@@ -3402,7 +3399,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
@@ -3417,15 +3414,15 @@
         <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
@@ -3440,15 +3437,15 @@
         <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
@@ -3463,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>1</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -3486,15 +3483,15 @@
         <v>1</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -3509,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>1</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
@@ -3532,15 +3529,15 @@
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
@@ -3555,15 +3552,15 @@
         <v>1</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -3578,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>1</v>
@@ -3586,7 +3583,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
@@ -3601,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>1</v>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
@@ -3624,15 +3621,15 @@
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -3647,15 +3644,15 @@
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1</v>
@@ -3670,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>1</v>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1</v>
@@ -3693,15 +3690,15 @@
         <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
@@ -3716,15 +3713,15 @@
         <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
@@ -3739,15 +3736,15 @@
         <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1</v>
@@ -3762,15 +3759,15 @@
         <v>1</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -3785,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>1</v>
@@ -3793,7 +3790,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1</v>
@@ -3808,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>1</v>
@@ -3816,7 +3813,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
@@ -3831,15 +3828,15 @@
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -3854,15 +3851,15 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
@@ -3877,15 +3874,15 @@
         <v>1</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1</v>
@@ -3900,15 +3897,15 @@
         <v>1</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1</v>
@@ -3923,15 +3920,15 @@
         <v>1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
@@ -3946,15 +3943,15 @@
         <v>1</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -3969,15 +3966,15 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1</v>
@@ -3992,15 +3989,15 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -4015,15 +4012,15 @@
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1</v>
@@ -4038,15 +4035,15 @@
         <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -4061,15 +4058,15 @@
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
@@ -4084,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>1</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1</v>
@@ -4107,15 +4104,15 @@
         <v>1</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -4130,15 +4127,15 @@
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1</v>
@@ -4153,15 +4150,15 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
@@ -4176,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>1</v>
@@ -4207,142 +4204,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4368,15 +4365,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30.0</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>20.0</v>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>16.0</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>14.0</v>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>12.0</v>
@@ -4762,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4870,763 +4867,763 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="DG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="EQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="GA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IT1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="HK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KD1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="KE1" s="1" t="s">
         <v>1</v>
@@ -5724,972 +5721,972 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="BV2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BW2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="DE2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="DF2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="DG2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="EO2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="EP2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="EQ2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="FG2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="FG2" s="1" t="s">
+      <c r="FH2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="FH2" s="1" t="s">
+      <c r="FI2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="FI2" s="1" t="s">
+      <c r="FJ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="FJ2" s="1" t="s">
+      <c r="FK2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="FK2" s="1" t="s">
+      <c r="FL2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="FL2" s="1" t="s">
+      <c r="FM2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="FM2" s="1" t="s">
+      <c r="FN2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="FN2" s="1" t="s">
+      <c r="FO2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="FO2" s="1" t="s">
+      <c r="FP2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="FP2" s="1" t="s">
+      <c r="FQ2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="FQ2" s="1" t="s">
+      <c r="FR2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="FR2" s="1" t="s">
+      <c r="FS2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="FS2" s="1" t="s">
+      <c r="FT2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="FT2" s="1" t="s">
+      <c r="FU2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="FU2" s="1" t="s">
+      <c r="FV2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="FV2" s="1" t="s">
+      <c r="FW2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="FW2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="FY2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="FZ2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="GA2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GB2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="GC2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="GD2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="GE2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="GF2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="GG2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="GH2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="GI2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="GJ2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="GK2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="GL2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="GU2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="GV2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="GW2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="GX2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="GY2" s="1" t="s">
+      <c r="GZ2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="GZ2" s="1" t="s">
+      <c r="HA2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="HA2" s="1" t="s">
+      <c r="HB2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="HB2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="HC2" s="1" t="s">
+      <c r="HD2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="HD2" s="1" t="s">
+      <c r="HE2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="HE2" s="1" t="s">
+      <c r="HF2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="HF2" s="1" t="s">
+      <c r="HG2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="HG2" s="1" t="s">
+      <c r="HH2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="HH2" s="1" t="s">
+      <c r="HI2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="HI2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="HJ2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="HK2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="HL2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="HL2" s="1" t="s">
+      <c r="HM2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="HM2" s="1" t="s">
+      <c r="HN2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="HN2" s="1" t="s">
+      <c r="HO2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="HO2" s="1" t="s">
+      <c r="HP2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="HP2" s="1" t="s">
+      <c r="HQ2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="HQ2" s="1" t="s">
+      <c r="HR2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="HR2" s="1" t="s">
+      <c r="HS2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="HS2" s="1" t="s">
+      <c r="HT2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="HT2" s="1" t="s">
+      <c r="HU2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="HU2" s="1" t="s">
+      <c r="HV2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="HV2" s="1" t="s">
+      <c r="HW2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="HW2" s="1" t="s">
+      <c r="HX2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="HX2" s="1" t="s">
+      <c r="HY2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="HY2" s="1" t="s">
+      <c r="HZ2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="HZ2" s="1" t="s">
+      <c r="IA2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="IA2" s="1" t="s">
+      <c r="IB2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="IB2" s="1" t="s">
+      <c r="IC2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="IC2" s="1" t="s">
+      <c r="ID2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="ID2" s="1" t="s">
+      <c r="IE2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="IE2" s="1" t="s">
+      <c r="IF2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="IF2" s="1" t="s">
+      <c r="IG2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="IG2" s="1" t="s">
+      <c r="IH2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="IH2" s="1" t="s">
+      <c r="II2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="II2" s="1" t="s">
+      <c r="IJ2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="IJ2" s="1" t="s">
+      <c r="IK2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="IK2" s="1" t="s">
+      <c r="IL2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="IL2" s="1" t="s">
+      <c r="IM2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="IM2" s="1" t="s">
+      <c r="IN2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="IN2" s="1" t="s">
+      <c r="IO2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="IO2" s="1" t="s">
+      <c r="IP2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="IP2" s="1" t="s">
+      <c r="IQ2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="IQ2" s="1" t="s">
+      <c r="IR2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="IR2" s="1" t="s">
+      <c r="IS2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="IS2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="IT2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="IU2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="IV2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="IV2" s="1" t="s">
+      <c r="IW2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="IW2" s="1" t="s">
+      <c r="IX2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="IX2" s="1" t="s">
+      <c r="IY2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="IY2" s="1" t="s">
+      <c r="IZ2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="IZ2" s="1" t="s">
+      <c r="JA2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="JA2" s="1" t="s">
+      <c r="JB2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="JB2" s="1" t="s">
+      <c r="JC2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="JC2" s="1" t="s">
+      <c r="JD2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="JD2" s="1" t="s">
+      <c r="JE2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="JE2" s="1" t="s">
+      <c r="JF2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="JF2" s="1" t="s">
+      <c r="JG2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="JG2" s="1" t="s">
+      <c r="JH2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="JH2" s="1" t="s">
+      <c r="JI2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="JI2" s="1" t="s">
+      <c r="JJ2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="JJ2" s="1" t="s">
+      <c r="JK2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="JK2" s="1" t="s">
+      <c r="JL2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="JL2" s="1" t="s">
+      <c r="JM2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="JM2" s="1" t="s">
+      <c r="JN2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="JN2" s="1" t="s">
+      <c r="JO2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="JO2" s="1" t="s">
+      <c r="JP2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="JP2" s="1" t="s">
+      <c r="JQ2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="JQ2" s="1" t="s">
+      <c r="JR2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="JR2" s="1" t="s">
+      <c r="JS2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="JS2" s="1" t="s">
+      <c r="JT2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="JT2" s="1" t="s">
+      <c r="JU2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="JU2" s="1" t="s">
+      <c r="JV2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="JV2" s="1" t="s">
+      <c r="JW2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="JW2" s="1" t="s">
+      <c r="JX2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="JX2" s="1" t="s">
+      <c r="JY2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="JY2" s="1" t="s">
+      <c r="JZ2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="JZ2" s="1" t="s">
+      <c r="KA2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="KA2" s="1" t="s">
+      <c r="KB2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="KB2" s="1" t="s">
+      <c r="KC2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="KC2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="KD2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="KE2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="KF2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="KF2" s="1" t="s">
+      <c r="KG2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="KG2" s="1" t="s">
+      <c r="KH2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="KH2" s="1" t="s">
+      <c r="KI2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="KI2" s="1" t="s">
+      <c r="KJ2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="KJ2" s="1" t="s">
+      <c r="KK2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="KK2" s="1" t="s">
+      <c r="KL2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="KL2" s="1" t="s">
+      <c r="KM2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="KM2" s="1" t="s">
+      <c r="KN2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="KN2" s="1" t="s">
+      <c r="KO2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="KO2" s="1" t="s">
+      <c r="KP2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="KP2" s="1" t="s">
+      <c r="KQ2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="KQ2" s="1" t="s">
+      <c r="KR2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="KR2" s="1" t="s">
+      <c r="KS2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="KS2" s="1" t="s">
+      <c r="KT2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="KT2" s="1" t="s">
+      <c r="KU2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="KU2" s="1" t="s">
+      <c r="KV2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="KV2" s="1" t="s">
+      <c r="KW2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="KW2" s="1" t="s">
+      <c r="KX2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="KX2" s="1" t="s">
+      <c r="KY2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="KY2" s="1" t="s">
+      <c r="KZ2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="KZ2" s="1" t="s">
+      <c r="LA2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="LA2" s="1" t="s">
+      <c r="LB2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="LB2" s="1" t="s">
+      <c r="LC2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="LC2" s="1" t="s">
+      <c r="LD2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="LD2" s="1" t="s">
+      <c r="LE2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="LE2" s="1" t="s">
+      <c r="LF2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="LF2" s="1" t="s">
+      <c r="LG2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="LG2" s="1" t="s">
+      <c r="LH2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="LH2" s="1" t="s">
+      <c r="LI2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="LI2" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -7654,7 +7651,7 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -8619,7 +8616,7 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -9584,7 +9581,7 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1</v>
@@ -10549,7 +10546,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -11875,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11983,763 +11980,763 @@
         <v>1</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="DH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="ER1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="GB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IU1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="HL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="KE1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="KF1" s="1" t="s">
         <v>1</v>
@@ -12837,978 +12834,978 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="BW2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BX2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="DG2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="DH2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="DI2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="EP2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="EQ2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="ER2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="ES2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="FG2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="FG2" s="1" t="s">
+      <c r="FH2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="FH2" s="1" t="s">
+      <c r="FI2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="FI2" s="1" t="s">
+      <c r="FJ2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="FJ2" s="1" t="s">
+      <c r="FK2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="FK2" s="1" t="s">
+      <c r="FL2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="FL2" s="1" t="s">
+      <c r="FM2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="FM2" s="1" t="s">
+      <c r="FN2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="FN2" s="1" t="s">
+      <c r="FO2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="FO2" s="1" t="s">
+      <c r="FP2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="FP2" s="1" t="s">
+      <c r="FQ2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="FQ2" s="1" t="s">
+      <c r="FR2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="FR2" s="1" t="s">
+      <c r="FS2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="FS2" s="1" t="s">
+      <c r="FT2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="FT2" s="1" t="s">
+      <c r="FU2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="FU2" s="1" t="s">
+      <c r="FV2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="FV2" s="1" t="s">
+      <c r="FW2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="FW2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="FZ2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="GA2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="GB2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GC2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="GC2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="GD2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="GE2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="GF2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="GG2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="GH2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="GI2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="GJ2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="GK2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="GL2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="GU2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="GV2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="GW2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="GX2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="GY2" s="1" t="s">
+      <c r="GZ2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="GZ2" s="1" t="s">
+      <c r="HA2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="HA2" s="1" t="s">
+      <c r="HB2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="HB2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="HC2" s="1" t="s">
+      <c r="HD2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="HD2" s="1" t="s">
+      <c r="HE2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="HE2" s="1" t="s">
+      <c r="HF2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="HF2" s="1" t="s">
+      <c r="HG2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="HG2" s="1" t="s">
+      <c r="HH2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="HH2" s="1" t="s">
+      <c r="HI2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="HI2" s="1" t="s">
+      <c r="HJ2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="HJ2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="HK2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="HL2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="HM2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="HM2" s="1" t="s">
+      <c r="HN2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="HN2" s="1" t="s">
+      <c r="HO2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="HO2" s="1" t="s">
+      <c r="HP2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="HP2" s="1" t="s">
+      <c r="HQ2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="HQ2" s="1" t="s">
+      <c r="HR2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="HR2" s="1" t="s">
+      <c r="HS2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="HS2" s="1" t="s">
+      <c r="HT2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="HT2" s="1" t="s">
+      <c r="HU2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="HU2" s="1" t="s">
+      <c r="HV2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="HV2" s="1" t="s">
+      <c r="HW2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="HW2" s="1" t="s">
+      <c r="HX2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="HX2" s="1" t="s">
+      <c r="HY2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="HY2" s="1" t="s">
+      <c r="HZ2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="HZ2" s="1" t="s">
+      <c r="IA2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="IA2" s="1" t="s">
+      <c r="IB2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="IB2" s="1" t="s">
+      <c r="IC2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="IC2" s="1" t="s">
+      <c r="ID2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="ID2" s="1" t="s">
+      <c r="IE2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="IE2" s="1" t="s">
+      <c r="IF2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="IF2" s="1" t="s">
+      <c r="IG2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="IG2" s="1" t="s">
+      <c r="IH2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="IH2" s="1" t="s">
+      <c r="II2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="II2" s="1" t="s">
+      <c r="IJ2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="IJ2" s="1" t="s">
+      <c r="IK2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="IK2" s="1" t="s">
+      <c r="IL2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="IL2" s="1" t="s">
+      <c r="IM2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="IM2" s="1" t="s">
+      <c r="IN2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="IN2" s="1" t="s">
+      <c r="IO2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="IO2" s="1" t="s">
+      <c r="IP2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="IP2" s="1" t="s">
+      <c r="IQ2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="IQ2" s="1" t="s">
+      <c r="IR2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="IR2" s="1" t="s">
+      <c r="IS2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="IS2" s="1" t="s">
+      <c r="IT2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="IT2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="IU2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="IV2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="IW2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="IW2" s="1" t="s">
+      <c r="IX2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="IX2" s="1" t="s">
+      <c r="IY2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="IY2" s="1" t="s">
+      <c r="IZ2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="IZ2" s="1" t="s">
+      <c r="JA2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="JA2" s="1" t="s">
+      <c r="JB2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="JB2" s="1" t="s">
+      <c r="JC2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="JC2" s="1" t="s">
+      <c r="JD2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="JD2" s="1" t="s">
+      <c r="JE2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="JE2" s="1" t="s">
+      <c r="JF2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="JF2" s="1" t="s">
+      <c r="JG2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="JG2" s="1" t="s">
+      <c r="JH2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="JH2" s="1" t="s">
+      <c r="JI2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="JI2" s="1" t="s">
+      <c r="JJ2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="JJ2" s="1" t="s">
+      <c r="JK2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="JK2" s="1" t="s">
+      <c r="JL2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="JL2" s="1" t="s">
+      <c r="JM2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="JM2" s="1" t="s">
+      <c r="JN2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="JN2" s="1" t="s">
+      <c r="JO2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="JO2" s="1" t="s">
+      <c r="JP2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="JP2" s="1" t="s">
+      <c r="JQ2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="JQ2" s="1" t="s">
+      <c r="JR2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="JR2" s="1" t="s">
+      <c r="JS2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="JS2" s="1" t="s">
+      <c r="JT2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="JT2" s="1" t="s">
+      <c r="JU2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="JU2" s="1" t="s">
+      <c r="JV2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="JV2" s="1" t="s">
+      <c r="JW2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="JW2" s="1" t="s">
+      <c r="JX2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="JX2" s="1" t="s">
+      <c r="JY2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="JY2" s="1" t="s">
+      <c r="JZ2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="JZ2" s="1" t="s">
+      <c r="KA2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="KA2" s="1" t="s">
+      <c r="KB2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="KB2" s="1" t="s">
+      <c r="KC2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="KC2" s="1" t="s">
+      <c r="KD2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="KD2" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="KE2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="KF2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="KG2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="KG2" s="1" t="s">
+      <c r="KH2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="KH2" s="1" t="s">
+      <c r="KI2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="KI2" s="1" t="s">
+      <c r="KJ2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="KJ2" s="1" t="s">
+      <c r="KK2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="KK2" s="1" t="s">
+      <c r="KL2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="KL2" s="1" t="s">
+      <c r="KM2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="KM2" s="1" t="s">
+      <c r="KN2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="KN2" s="1" t="s">
+      <c r="KO2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="KO2" s="1" t="s">
+      <c r="KP2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="KP2" s="1" t="s">
+      <c r="KQ2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="KQ2" s="1" t="s">
+      <c r="KR2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="KR2" s="1" t="s">
+      <c r="KS2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="KS2" s="1" t="s">
+      <c r="KT2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="KT2" s="1" t="s">
+      <c r="KU2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="KU2" s="1" t="s">
+      <c r="KV2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="KV2" s="1" t="s">
+      <c r="KW2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="KW2" s="1" t="s">
+      <c r="KX2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="KX2" s="1" t="s">
+      <c r="KY2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="KY2" s="1" t="s">
+      <c r="KZ2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="KZ2" s="1" t="s">
+      <c r="LA2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="LA2" s="1" t="s">
+      <c r="LB2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="LB2" s="1" t="s">
+      <c r="LC2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="LC2" s="1" t="s">
+      <c r="LD2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="LD2" s="1" t="s">
+      <c r="LE2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="LE2" s="1" t="s">
+      <c r="LF2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="LF2" s="1" t="s">
+      <c r="LG2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="LG2" s="1" t="s">
+      <c r="LH2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="LH2" s="1" t="s">
+      <c r="LI2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="LI2" s="1" t="s">
+      <c r="LJ2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="LJ2" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -14773,10 +14770,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
@@ -15741,10 +15738,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
@@ -16709,10 +16706,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1</v>
@@ -17677,10 +17674,10 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
@@ -18645,10 +18642,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>1</v>
@@ -19613,10 +19610,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>1</v>
@@ -20581,10 +20578,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>1</v>
@@ -21549,10 +21546,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>1</v>
@@ -22517,10 +22514,10 @@
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>1</v>
@@ -23485,10 +23482,10 @@
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>1</v>
@@ -24453,10 +24450,10 @@
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1</v>
@@ -25421,10 +25418,10 @@
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -26389,10 +26386,10 @@
     </row>
     <row r="16" ht="30.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -27357,10 +27354,10 @@
     </row>
     <row r="17" ht="30.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
@@ -28325,10 +28322,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
@@ -29293,10 +29290,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>1</v>
@@ -30261,10 +30258,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>1</v>
@@ -31229,10 +31226,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>1</v>
@@ -32197,10 +32194,10 @@
     </row>
     <row r="22" ht="30.0" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>1</v>
@@ -33165,10 +33162,10 @@
     </row>
     <row r="23" ht="30.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>1</v>
@@ -34133,10 +34130,10 @@
     </row>
     <row r="24" ht="30.0" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>1</v>
@@ -35101,10 +35098,10 @@
     </row>
     <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>1</v>
@@ -36069,10 +36066,10 @@
     </row>
     <row r="26" ht="30.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>1</v>
@@ -37037,10 +37034,10 @@
     </row>
     <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>1</v>
@@ -38005,10 +38002,10 @@
     </row>
     <row r="28" ht="30.0" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>1</v>
@@ -38973,10 +38970,10 @@
     </row>
     <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1</v>
@@ -39941,10 +39938,10 @@
     </row>
     <row r="30" ht="30.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>1</v>
@@ -40909,10 +40906,10 @@
     </row>
     <row r="31" ht="30.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>1</v>
@@ -41877,10 +41874,10 @@
     </row>
     <row r="32" ht="30.0" customHeight="true">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>1</v>
@@ -42845,10 +42842,10 @@
     </row>
     <row r="33" ht="30.0" customHeight="true">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>1</v>
@@ -43813,10 +43810,10 @@
     </row>
     <row r="34" ht="30.0" customHeight="true">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>1</v>
@@ -44781,10 +44778,10 @@
     </row>
     <row r="35" ht="30.0" customHeight="true">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>1</v>
@@ -45749,10 +45746,10 @@
     </row>
     <row r="36" ht="30.0" customHeight="true">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1</v>
@@ -46717,10 +46714,10 @@
     </row>
     <row r="37" ht="30.0" customHeight="true">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>1</v>
@@ -47685,10 +47682,10 @@
     </row>
     <row r="38" ht="30.0" customHeight="true">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>1</v>
@@ -48653,10 +48650,10 @@
     </row>
     <row r="39" ht="30.0" customHeight="true">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>1</v>
@@ -49621,10 +49618,10 @@
     </row>
     <row r="40" ht="30.0" customHeight="true">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>1</v>
@@ -50589,10 +50586,10 @@
     </row>
     <row r="41" ht="30.0" customHeight="true">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>1</v>
@@ -51557,10 +51554,10 @@
     </row>
     <row r="42" ht="30.0" customHeight="true">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>1</v>
@@ -52525,10 +52522,10 @@
     </row>
     <row r="43" ht="30.0" customHeight="true">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>1</v>
@@ -53493,10 +53490,10 @@
     </row>
     <row r="44" ht="30.0" customHeight="true">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>1</v>
@@ -54461,10 +54458,10 @@
     </row>
     <row r="45" ht="30.0" customHeight="true">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>1</v>
@@ -55429,10 +55426,10 @@
     </row>
     <row r="46" ht="30.0" customHeight="true">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>1</v>
@@ -56397,10 +56394,10 @@
     </row>
     <row r="47" ht="30.0" customHeight="true">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>1</v>
@@ -57365,10 +57362,10 @@
     </row>
     <row r="48" ht="30.0" customHeight="true">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>1</v>
@@ -58333,10 +58330,10 @@
     </row>
     <row r="49" ht="30.0" customHeight="true">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>1</v>
@@ -59301,10 +59298,10 @@
     </row>
     <row r="50" ht="30.0" customHeight="true">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>1</v>
@@ -60269,10 +60266,10 @@
     </row>
     <row r="51" ht="30.0" customHeight="true">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>1</v>
@@ -61237,10 +61234,10 @@
     </row>
     <row r="52" ht="30.0" customHeight="true">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>1</v>
@@ -62205,10 +62202,10 @@
     </row>
     <row r="53" ht="30.0" customHeight="true">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>1</v>
@@ -63173,10 +63170,10 @@
     </row>
     <row r="54" ht="30.0" customHeight="true">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>1</v>
@@ -64141,10 +64138,10 @@
     </row>
     <row r="55" ht="30.0" customHeight="true">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>1</v>
@@ -65109,10 +65106,10 @@
     </row>
     <row r="56" ht="30.0" customHeight="true">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>1</v>
@@ -66077,10 +66074,10 @@
     </row>
     <row r="57" ht="30.0" customHeight="true">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>1</v>
@@ -67045,10 +67042,10 @@
     </row>
     <row r="58" ht="30.0" customHeight="true">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>1</v>
@@ -68013,10 +68010,10 @@
     </row>
     <row r="59" ht="30.0" customHeight="true">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>1</v>
@@ -68981,10 +68978,10 @@
     </row>
     <row r="60" ht="30.0" customHeight="true">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>1</v>
@@ -69949,10 +69946,10 @@
     </row>
     <row r="61" ht="30.0" customHeight="true">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>1</v>
@@ -70917,10 +70914,10 @@
     </row>
     <row r="62" ht="30.0" customHeight="true">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>1</v>
@@ -71885,10 +71882,10 @@
     </row>
     <row r="63" ht="30.0" customHeight="true">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>1</v>
@@ -72853,10 +72850,10 @@
     </row>
     <row r="64" ht="30.0" customHeight="true">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>1</v>
@@ -73821,10 +73818,10 @@
     </row>
     <row r="65" ht="30.0" customHeight="true">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>1</v>
@@ -74789,10 +74786,10 @@
     </row>
     <row r="66" ht="30.0" customHeight="true">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>1</v>
@@ -75757,10 +75754,10 @@
     </row>
     <row r="67" ht="30.0" customHeight="true">
       <c r="A67" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>1</v>
@@ -76725,10 +76722,10 @@
     </row>
     <row r="68" ht="30.0" customHeight="true">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>1</v>
@@ -77693,10 +77690,10 @@
     </row>
     <row r="69" ht="30.0" customHeight="true">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>1</v>
@@ -78661,10 +78658,10 @@
     </row>
     <row r="70" ht="30.0" customHeight="true">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>1</v>
@@ -79629,10 +79626,10 @@
     </row>
     <row r="71" ht="30.0" customHeight="true">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>1</v>
@@ -80597,10 +80594,10 @@
     </row>
     <row r="72" ht="30.0" customHeight="true">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>1</v>
@@ -81639,7 +81636,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3"/>
@@ -81649,7 +81646,7 @@
     <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9"/>
@@ -81659,7 +81656,7 @@
     <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15"/>
@@ -81669,7 +81666,7 @@
     <row r="19"/>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21"/>
@@ -81679,7 +81676,7 @@
     <row r="25"/>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27"/>
@@ -81689,7 +81686,7 @@
     <row r="31"/>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33"/>
@@ -81699,7 +81696,7 @@
     <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39"/>
@@ -81709,7 +81706,7 @@
     <row r="43"/>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45"/>
@@ -81719,7 +81716,7 @@
     <row r="49"/>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51"/>
@@ -81729,7 +81726,7 @@
     <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57"/>
@@ -81739,7 +81736,7 @@
     <row r="61"/>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63"/>
@@ -81749,7 +81746,7 @@
     <row r="67"/>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69"/>
@@ -81759,7 +81756,7 @@
     <row r="73"/>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75"/>
@@ -81769,7 +81766,7 @@
     <row r="79"/>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81"/>
@@ -81779,7 +81776,7 @@
     <row r="85"/>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87"/>
@@ -81789,7 +81786,7 @@
     <row r="91"/>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93"/>
@@ -81799,7 +81796,7 @@
     <row r="97"/>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99"/>
@@ -81809,7 +81806,7 @@
     <row r="103"/>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105"/>
@@ -81819,7 +81816,7 @@
     <row r="109"/>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111"/>
@@ -81829,7 +81826,7 @@
     <row r="115"/>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117"/>
@@ -81839,7 +81836,7 @@
     <row r="121"/>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123"/>
@@ -81849,7 +81846,7 @@
     <row r="127"/>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129"/>
@@ -81859,7 +81856,7 @@
     <row r="133"/>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135"/>
@@ -81869,7 +81866,7 @@
     <row r="139"/>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141"/>
@@ -81879,7 +81876,7 @@
     <row r="145"/>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147"/>
@@ -81889,7 +81886,7 @@
     <row r="151"/>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153"/>
@@ -81899,7 +81896,7 @@
     <row r="157"/>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159"/>
@@ -81909,7 +81906,7 @@
     <row r="163"/>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165"/>
@@ -81919,7 +81916,7 @@
     <row r="169"/>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171"/>
@@ -81929,7 +81926,7 @@
     <row r="175"/>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177"/>
@@ -81939,7 +81936,7 @@
     <row r="181"/>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183"/>
@@ -81949,7 +81946,7 @@
     <row r="187"/>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="189"/>
@@ -81959,7 +81956,7 @@
     <row r="193"/>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195"/>
@@ -81969,7 +81966,7 @@
     <row r="199"/>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201"/>
@@ -81979,7 +81976,7 @@
     <row r="205"/>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="207"/>
@@ -81989,7 +81986,7 @@
     <row r="211"/>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213"/>
@@ -81999,7 +81996,7 @@
     <row r="217"/>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="219"/>
@@ -82009,7 +82006,7 @@
     <row r="223"/>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225"/>
@@ -82019,7 +82016,7 @@
     <row r="229"/>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="231"/>
@@ -82029,7 +82026,7 @@
     <row r="235"/>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="237"/>
@@ -82039,7 +82036,7 @@
     <row r="241"/>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="243"/>
@@ -82049,7 +82046,7 @@
     <row r="247"/>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="249"/>
@@ -82059,7 +82056,7 @@
     <row r="253"/>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="255"/>
@@ -82069,7 +82066,7 @@
     <row r="259"/>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261"/>
@@ -82079,7 +82076,7 @@
     <row r="265"/>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267"/>
@@ -82089,7 +82086,7 @@
     <row r="271"/>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273"/>
@@ -82099,7 +82096,7 @@
     <row r="277"/>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="279"/>
@@ -82109,7 +82106,7 @@
     <row r="283"/>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="285"/>
@@ -82119,7 +82116,7 @@
     <row r="289"/>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="291"/>
@@ -82129,7 +82126,7 @@
     <row r="295"/>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="297"/>
@@ -82139,7 +82136,7 @@
     <row r="301"/>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303"/>
@@ -82149,7 +82146,7 @@
     <row r="307"/>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="309"/>
@@ -82159,7 +82156,7 @@
     <row r="313"/>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="315"/>
@@ -82169,11 +82166,10 @@
     <row r="319"/>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="321"/>
-    <row r="322"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A7"/>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26613" uniqueCount="514">
   <si>
-    <t>Fri 2018-10-05 13:50</t>
+    <t>Wed 2018-10-10 16:04</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -1582,7 +1582,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,6 +1617,11 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1630,7 +1635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1654,6 +1659,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26613" uniqueCount="514">
   <si>
-    <t>Wed 2018-10-10 16:04</t>
+    <t>Mon 2018-10-15 17:45</t>
   </si>
   <si>
     <t>Constraint</t>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/100meetings-320timegrains-5rooms.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26829" uniqueCount="536">
   <si>
-    <t>Fri 2022-11-25 12:05</t>
+    <t>Fri 2022-11-25 12:42</t>
   </si>
   <si>
     <t>Constraint</t>
